--- a/02_config/scenario_pv_60_hp_60_ev_60_winter/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_winter/agents.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\LRZ Sync+Share\Thesis - Claudio Lex\02 - Data\Scenarios_NEW\configs\scenario_pv_60_hp_60_ev_60_winter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5768103E-8218-4D89-8D31-5C22883FEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1519,8 +1525,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,13 +1589,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1627,7 +1641,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1661,6 +1675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1695,9 +1710,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1870,14 +1886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="DD2" sqref="DD2:DD40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:289">
+    <row r="1" spans="1:289" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2743,7 +2761,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:289">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2910,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="DD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="s">
         <v>366</v>
@@ -3165,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:289">
+    <row r="3" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>50</v>
       </c>
       <c r="DD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="s">
         <v>366</v>
@@ -3665,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:289">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="DD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="s">
         <v>366</v>
@@ -4087,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:289">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>51</v>
       </c>
       <c r="DD5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="s">
         <v>366</v>
@@ -4674,7 +4692,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:289">
+    <row r="6" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4856,7 +4874,7 @@
         <v>42</v>
       </c>
       <c r="DD6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="s">
         <v>366</v>
@@ -5147,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:289">
+    <row r="7" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5314,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="DD7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="s">
         <v>366</v>
@@ -5569,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:289">
+    <row r="8" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5736,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="DD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="s">
         <v>366</v>
@@ -5991,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:289">
+    <row r="9" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6173,7 +6191,7 @@
         <v>46</v>
       </c>
       <c r="DD9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="s">
         <v>366</v>
@@ -6545,7 +6563,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:289">
+    <row r="10" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6712,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="DD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="s">
         <v>366</v>
@@ -6967,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:289">
+    <row r="11" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7134,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="DD11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="s">
         <v>366</v>
@@ -7389,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:289">
+    <row r="12" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>42</v>
       </c>
       <c r="DD12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="s">
         <v>366</v>
@@ -7970,7 +7988,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:289">
+    <row r="13" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8152,7 +8170,7 @@
         <v>56</v>
       </c>
       <c r="DD13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="s">
         <v>366</v>
@@ -8497,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:289">
+    <row r="14" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8679,7 +8697,7 @@
         <v>51</v>
       </c>
       <c r="DD14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="s">
         <v>366</v>
@@ -8997,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:289">
+    <row r="15" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9164,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="DD15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="s">
         <v>366</v>
@@ -9419,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:289">
+    <row r="16" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9601,7 +9619,7 @@
         <v>45</v>
       </c>
       <c r="DD16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="s">
         <v>366</v>
@@ -9952,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:280">
+    <row r="17" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10134,7 +10152,7 @@
         <v>45</v>
       </c>
       <c r="DD17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="s">
         <v>366</v>
@@ -10452,7 +10470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:280">
+    <row r="18" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10619,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="DD18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="s">
         <v>366</v>
@@ -10874,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:280">
+    <row r="19" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="DD19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE19" t="s">
         <v>366</v>
@@ -11296,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:280">
+    <row r="20" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11478,7 +11496,7 @@
         <v>47</v>
       </c>
       <c r="DD20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE20" t="s">
         <v>366</v>
@@ -11796,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:280">
+    <row r="21" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11978,7 +11996,7 @@
         <v>45</v>
       </c>
       <c r="DD21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE21" t="s">
         <v>366</v>
@@ -12296,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:280">
+    <row r="22" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12463,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="DD22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE22" t="s">
         <v>366</v>
@@ -12718,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:280">
+    <row r="23" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12900,7 +12918,7 @@
         <v>90</v>
       </c>
       <c r="DD23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="s">
         <v>366</v>
@@ -13284,7 +13302,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:280">
+    <row r="24" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13466,7 +13484,7 @@
         <v>41</v>
       </c>
       <c r="DD24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE24" t="s">
         <v>366</v>
@@ -13784,7 +13802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:280">
+    <row r="25" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13966,7 +13984,7 @@
         <v>71</v>
       </c>
       <c r="DD25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE25" t="s">
         <v>366</v>
@@ -14284,7 +14302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:280">
+    <row r="26" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14466,7 +14484,7 @@
         <v>52</v>
       </c>
       <c r="DD26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE26" t="s">
         <v>366</v>
@@ -14817,7 +14835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:280">
+    <row r="27" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14999,7 +15017,7 @@
         <v>52</v>
       </c>
       <c r="DD27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE27" t="s">
         <v>366</v>
@@ -15344,7 +15362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:280">
+    <row r="28" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -15526,7 +15544,7 @@
         <v>55</v>
       </c>
       <c r="DD28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE28" t="s">
         <v>366</v>
@@ -15877,7 +15895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:280">
+    <row r="29" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16059,7 +16077,7 @@
         <v>90</v>
       </c>
       <c r="DD29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE29" t="s">
         <v>366</v>
@@ -16356,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:280">
+    <row r="30" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16523,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="DD30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE30" t="s">
         <v>366</v>
@@ -16778,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:280">
+    <row r="31" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16945,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="DD31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE31" t="s">
         <v>366</v>
@@ -17200,7 +17218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:280">
+    <row r="32" spans="1:280" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -17367,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="DD32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE32" t="s">
         <v>366</v>
@@ -17622,7 +17640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:289">
+    <row r="33" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -17789,7 +17807,7 @@
         <v>0</v>
       </c>
       <c r="DD33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE33" t="s">
         <v>366</v>
@@ -18044,7 +18062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:289">
+    <row r="34" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18226,7 +18244,7 @@
         <v>52</v>
       </c>
       <c r="DD34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE34" t="s">
         <v>366</v>
@@ -18625,7 +18643,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:289">
+    <row r="35" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -18792,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="DD35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE35" t="s">
         <v>366</v>
@@ -19047,7 +19065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:289">
+    <row r="36" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19229,7 +19247,7 @@
         <v>45</v>
       </c>
       <c r="DD36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE36" t="s">
         <v>366</v>
@@ -19574,7 +19592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:289">
+    <row r="37" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19741,7 +19759,7 @@
         <v>0</v>
       </c>
       <c r="DD37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE37" t="s">
         <v>366</v>
@@ -19996,7 +20014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:289">
+    <row r="38" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -20178,7 +20196,7 @@
         <v>60</v>
       </c>
       <c r="DD38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE38" t="s">
         <v>366</v>
@@ -20523,7 +20541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:289">
+    <row r="39" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -20705,7 +20723,7 @@
         <v>50</v>
       </c>
       <c r="DD39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39" t="s">
         <v>366</v>
@@ -21056,7 +21074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:289">
+    <row r="40" spans="1:289" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21238,7 +21256,7 @@
         <v>52</v>
       </c>
       <c r="DD40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE40" t="s">
         <v>366</v>
